--- a/ml/tf/tf-from-scratch/3/code-exercises/ch8/ch8-diagrams.xlsx
+++ b/ml/tf/tf-from-scratch/3/code-exercises/ch8/ch8-diagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\codelab\gpu\ml\tf\tf-from-scratch\3\code-exercises\ch8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD29900-12C7-4C93-8879-FB5BA5F2F61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC632226-EE9D-4A78-86E8-7018B9A99110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12504" xr2:uid="{11A5D9EC-664C-4C65-B657-EC97B5A44BD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{11A5D9EC-664C-4C65-B657-EC97B5A44BD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>rnn cell</t>
   </si>
@@ -79,13 +79,40 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>data generated</t>
+  </si>
+  <si>
+    <t>254, 4, 2</t>
+  </si>
+  <si>
+    <t>254=samples</t>
+  </si>
+  <si>
+    <t>4=corners</t>
+  </si>
+  <si>
+    <t>2=directions</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>input:</t>
+  </si>
+  <si>
+    <t>X[0:1]=[2,2]</t>
+  </si>
+  <si>
+    <t>X=[4,2] 1st of 254</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +122,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -151,13 +186,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -852,24 +887,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FCD38F-A89D-4CAD-83E5-E3FBC2822CB9}">
-  <dimension ref="C5:H13"/>
+  <dimension ref="C5:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="18.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="18.36328125" style="1"/>
+    <col min="1" max="16384" width="18.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D5" s="6" t="s">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="3:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -877,16 +912,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -896,7 +930,7 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -906,19 +940,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="4"/>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
@@ -928,16 +958,52 @@
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ml/tf/tf-from-scratch/3/code-exercises/ch8/ch8-diagrams.xlsx
+++ b/ml/tf/tf-from-scratch/3/code-exercises/ch8/ch8-diagrams.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\codelab\gpu\ml\tf\tf-from-scratch\3\code-exercises\ch8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC632226-EE9D-4A78-86E8-7018B9A99110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{11A5D9EC-664C-4C65-B657-EC97B5A44BD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,9 +87,6 @@
     <t>4=corners</t>
   </si>
   <si>
-    <t>2=directions</t>
-  </si>
-  <si>
     <t>forward</t>
   </si>
   <si>
@@ -106,12 +97,15 @@
   </si>
   <si>
     <t>X=[4,2] 1st of 254</t>
+  </si>
+  <si>
+    <t>2=coords</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,7 +226,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBF5015-59B0-97CC-D94C-1E821FE9BDAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEBF5015-59B0-97CC-D94C-1E821FE9BDAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -285,7 +279,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFDFD0D0-A0EC-464E-A4F2-16AAAD7AD986}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFDFD0D0-A0EC-464E-A4F2-16AAAD7AD986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -338,7 +332,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9563E9-BD7F-4380-8237-E9FAFE3280C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD9563E9-BD7F-4380-8237-E9FAFE3280C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -391,7 +385,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21176F88-92A4-45AC-8917-00F74C7DE826}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21176F88-92A4-45AC-8917-00F74C7DE826}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -444,7 +438,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98F0C16-8DBD-497A-BB7E-350666EB2AE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A98F0C16-8DBD-497A-BB7E-350666EB2AE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -497,7 +491,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA33B499-0709-4D00-BF00-96AF9E03D03B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA33B499-0709-4D00-BF00-96AF9E03D03B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -550,7 +544,7 @@
         <xdr:cNvPr id="15" name="Connector: Curved 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DA2CE5-B06F-EDB5-C39D-E65876A066EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93DA2CE5-B06F-EDB5-C39D-E65876A066EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -633,7 +627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -685,7 +679,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -879,18 +873,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FCD38F-A89D-4CAD-83E5-E3FBC2822CB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,7 +968,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
@@ -982,7 +976,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.3">
@@ -990,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
@@ -998,12 +992,12 @@
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
